--- a/Tabela preços água.xlsx
+++ b/Tabela preços água.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1490,17 +1490,13 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chácara Colina</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Fundos</t>
-        </is>
-      </c>
+          <t>Chácara São José</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>79B54592</t>
+          <t>A01L097304</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1509,12 +1505,24 @@
           <t>Residencial</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="G23" t="n">
+        <v>46.73</v>
+      </c>
+      <c r="H23" t="n">
+        <v>146.06</v>
+      </c>
+      <c r="I23" t="n">
+        <v>62.02</v>
+      </c>
+      <c r="J23" t="n">
+        <v>109.16</v>
+      </c>
+      <c r="K23" t="n">
+        <v>56.78</v>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1525,13 +1533,13 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chácara São José</t>
+          <t>Chácara Manacás</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A01L097304</t>
+          <t>A02L273774</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1541,22 +1549,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>25.42</v>
+        <v>236.86</v>
       </c>
       <c r="G24" t="n">
-        <v>46.73</v>
+        <v>258.22</v>
       </c>
       <c r="H24" t="n">
-        <v>146.06</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>62.02</v>
+        <v>25.42</v>
       </c>
       <c r="J24" t="n">
-        <v>109.16</v>
+        <v>49.38</v>
       </c>
       <c r="K24" t="n">
-        <v>56.78</v>
+        <v>25.42</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1571,10 +1579,14 @@
           <t>Chácara Manacás</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sala de Confraternização</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A02L273774</t>
+          <t>A03L247100</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1584,19 +1596,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>236.86</v>
+        <v>25.42</v>
       </c>
       <c r="G25" t="n">
-        <v>258.22</v>
+        <v>25.42</v>
       </c>
       <c r="H25" t="n">
-        <v>64.56999999999999</v>
+        <v>25.42</v>
       </c>
       <c r="I25" t="n">
         <v>25.42</v>
       </c>
       <c r="J25" t="n">
-        <v>49.38</v>
+        <v>25.42</v>
       </c>
       <c r="K25" t="n">
         <v>25.42</v>
@@ -1611,17 +1623,13 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chácara Manacás</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Sala de Confraternização</t>
-        </is>
-      </c>
+          <t>Lava-Car</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A03L247100</t>
+          <t>A02L273769</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1655,49 +1663,6 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Lava-Car</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A02L273769</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Residencial</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="G27" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="H27" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="I27" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="J27" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="K27" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Tabela preços água.xlsx
+++ b/Tabela preços água.xlsx
@@ -542,30 +542,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1212.47</v>
-      </c>
-      <c r="G2" t="n">
-        <v>773.55</v>
-      </c>
-      <c r="H2" t="n">
-        <v>857.21</v>
-      </c>
-      <c r="I2" t="n">
-        <v>616.55</v>
-      </c>
-      <c r="J2" t="n">
-        <v>859.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786.16</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>R$ 1212.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>R$ 773.55</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>R$ 857.21</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>R$ 616.55</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>R$ 859.5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>R$ 786.16</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -589,30 +625,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>370</v>
-      </c>
-      <c r="G3" t="n">
-        <v>361.51</v>
-      </c>
-      <c r="H3" t="n">
-        <v>437.44</v>
-      </c>
-      <c r="I3" t="n">
-        <v>420.36</v>
-      </c>
-      <c r="J3" t="n">
-        <v>426.61</v>
-      </c>
-      <c r="K3" t="n">
-        <v>467.21</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>R$ 370.0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>R$ 361.51</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>R$ 437.44</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>R$ 420.36</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>R$ 426.61</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>R$ 467.21</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -632,30 +704,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="G4" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="H4" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="I4" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="J4" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="K4" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -679,30 +787,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>413.43</v>
-      </c>
-      <c r="G5" t="n">
-        <v>460.28</v>
-      </c>
-      <c r="H5" t="n">
-        <v>406.11</v>
-      </c>
-      <c r="I5" t="n">
-        <v>660.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>629.73</v>
-      </c>
-      <c r="K5" t="n">
-        <v>419.58</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>R$ 413.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>R$ 460.28</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>R$ 406.11</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>R$ 660.1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>R$ 629.73</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>R$ 419.58</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -722,30 +866,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="G6" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="H6" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="I6" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="J6" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="K6" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -769,30 +949,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="G7" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="H7" t="n">
-        <v>93.70999999999999</v>
-      </c>
-      <c r="I7" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="J7" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="K7" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>R$ 93.71</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -816,30 +1032,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="G8" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="H8" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="I8" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="J8" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="K8" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -863,30 +1115,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="G9" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="H9" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="I9" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="J9" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="K9" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -910,30 +1198,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="G10" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="H10" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="I10" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="J10" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="K10" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -957,30 +1281,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="G11" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="H11" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="I11" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="J11" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="K11" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1004,30 +1364,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="G12" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="H12" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="I12" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="J12" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="K12" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1051,30 +1447,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="G13" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="H13" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="I13" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="J13" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="K13" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1102,30 +1534,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="G14" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="H14" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="I14" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="J14" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="K14" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1149,30 +1617,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="G15" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="H15" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="I15" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="J15" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="K15" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1192,30 +1696,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="G16" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="H16" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="I16" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="J16" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="K16" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1239,30 +1779,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>240.58</v>
-      </c>
-      <c r="G17" t="n">
-        <v>260.98</v>
-      </c>
-      <c r="H17" t="n">
-        <v>104.18</v>
-      </c>
-      <c r="I17" t="n">
-        <v>203.98</v>
-      </c>
-      <c r="J17" t="n">
-        <v>196.66</v>
-      </c>
-      <c r="K17" t="n">
-        <v>246.93</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>R$ 240.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>R$ 260.98</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>R$ 104.18</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>R$ 203.98</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>R$ 196.66</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>R$ 246.93</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1290,30 +1866,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="G18" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="H18" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="I18" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="J18" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="K18" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1333,30 +1945,66 @@
           <t>Industrial</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="G19" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="H19" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="I19" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="J19" t="n">
-        <v>254.74</v>
-      </c>
-      <c r="K19" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>R$ 254.74</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>R$ 51.04</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1376,30 +2024,66 @@
           <t>Residencial</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="G20" t="n">
-        <v>44.67</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="I20" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="K20" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>R$ 44.67</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1419,30 +2103,66 @@
           <t>Residencial</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="G21" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="H21" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="J21" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="K21" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1462,30 +2182,66 @@
           <t>Residencial</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="G22" t="n">
-        <v>63.86</v>
-      </c>
-      <c r="H22" t="n">
-        <v>38.55</v>
-      </c>
-      <c r="I22" t="n">
-        <v>39.51</v>
-      </c>
-      <c r="J22" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>R$ 63.86</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>R$ 38.55</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>R$ 39.51</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>R$ 35.4</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1505,30 +2261,66 @@
           <t>Residencial</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="G23" t="n">
-        <v>46.73</v>
-      </c>
-      <c r="H23" t="n">
-        <v>146.06</v>
-      </c>
-      <c r="I23" t="n">
-        <v>62.02</v>
-      </c>
-      <c r="J23" t="n">
-        <v>109.16</v>
-      </c>
-      <c r="K23" t="n">
-        <v>56.78</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>R$ 46.73</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>R$ 146.06</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>R$ 62.02</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>R$ 109.16</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>R$ 56.78</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1548,30 +2340,66 @@
           <t>Residencial</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>236.86</v>
-      </c>
-      <c r="G24" t="n">
-        <v>258.22</v>
-      </c>
-      <c r="H24" t="n">
-        <v>64.56999999999999</v>
-      </c>
-      <c r="I24" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="J24" t="n">
-        <v>49.38</v>
-      </c>
-      <c r="K24" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>R$ 236.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>R$ 258.22</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>R$ 64.57</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>R$ 49.38</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1595,30 +2423,66 @@
           <t>Residencial</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="G25" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="H25" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="I25" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="J25" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="K25" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1638,30 +2502,66 @@
           <t>Residencial</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="G26" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="H26" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="I26" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="J26" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="K26" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>R$ 25.42</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>R$ nan</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1673,42 +2573,18 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>3340.420000000001</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3060.62</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2913.03</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2844.18</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3326.38</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2843.74</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
